--- a/InputData/indst/TNRbI/Total Nonfuel Revenue by Industry.xlsx
+++ b/InputData/indst/TNRbI/Total Nonfuel Revenue by Industry.xlsx
@@ -6027,7 +6027,7 @@
         <v>325084.758</v>
       </c>
       <c r="E5" t="n">
-        <v>8466.749</v>
+        <v>5572.244</v>
       </c>
       <c r="F5">
         <f>B5*(E5/D5)</f>
@@ -6271,106 +6271,106 @@
         <v>323015.992</v>
       </c>
       <c r="C17" s="30" t="n">
-        <v>8466.749</v>
+        <v>5572.244</v>
       </c>
       <c r="D17" s="30" t="n">
-        <v>8533.281000000001</v>
+        <v>5610.575</v>
       </c>
       <c r="E17" s="30" t="n">
-        <v>8599.813</v>
+        <v>5648.907</v>
       </c>
       <c r="F17" s="30" t="n">
-        <v>8666.344999999999</v>
+        <v>5687.238</v>
       </c>
       <c r="G17" s="30" t="n">
-        <v>8732.877</v>
+        <v>5725.569</v>
       </c>
       <c r="H17" s="30" t="n">
-        <v>8799.409</v>
+        <v>5763.901</v>
       </c>
       <c r="I17" s="30" t="n">
-        <v>8865.941000000001</v>
+        <v>5802.232</v>
       </c>
       <c r="J17" s="30" t="n">
-        <v>8932.473</v>
+        <v>5840.563</v>
       </c>
       <c r="K17" s="30" t="n">
-        <v>8999.005999999999</v>
+        <v>5878.894</v>
       </c>
       <c r="L17" s="30" t="n">
-        <v>9065.538</v>
+        <v>5917.226000000001</v>
       </c>
       <c r="M17" s="30" t="n">
-        <v>9132.07</v>
+        <v>5955.557</v>
       </c>
       <c r="N17" s="30" t="n">
-        <v>9198.602000000001</v>
+        <v>5993.888</v>
       </c>
       <c r="O17" s="30" t="n">
-        <v>9265.134</v>
+        <v>6032.22</v>
       </c>
       <c r="P17" s="30" t="n">
-        <v>9331.666000000001</v>
+        <v>6070.551</v>
       </c>
       <c r="Q17" s="30" t="n">
-        <v>9398.198</v>
+        <v>6108.882000000001</v>
       </c>
       <c r="R17" s="30" t="n">
-        <v>9464.73</v>
+        <v>6147.214</v>
       </c>
       <c r="S17" s="30" t="n">
-        <v>9531.262000000001</v>
+        <v>6185.545</v>
       </c>
       <c r="T17" s="30" t="n">
-        <v>9597.794</v>
+        <v>6223.876</v>
       </c>
       <c r="U17" s="30" t="n">
-        <v>9664.326000000001</v>
+        <v>6262.208000000001</v>
       </c>
       <c r="V17" s="30" t="n">
-        <v>9730.859</v>
+        <v>6300.539</v>
       </c>
       <c r="W17" s="30" t="n">
-        <v>9797.391</v>
+        <v>6338.87</v>
       </c>
       <c r="X17" s="30" t="n">
-        <v>9863.923000000001</v>
+        <v>6377.201</v>
       </c>
       <c r="Y17" s="30" t="n">
-        <v>9930.455</v>
+        <v>6415.533</v>
       </c>
       <c r="Z17" s="30" t="n">
-        <v>9996.987000000001</v>
+        <v>6453.864</v>
       </c>
       <c r="AA17" s="30" t="n">
-        <v>10063.519</v>
+        <v>6492.195</v>
       </c>
       <c r="AB17" s="30" t="n">
-        <v>10130.051</v>
+        <v>6530.527</v>
       </c>
       <c r="AC17" s="30" t="n">
-        <v>10196.583</v>
+        <v>6568.858</v>
       </c>
       <c r="AD17" s="30" t="n">
-        <v>10263.115</v>
+        <v>6607.189</v>
       </c>
       <c r="AE17" s="30" t="n">
-        <v>10329.648</v>
+        <v>6645.52</v>
       </c>
       <c r="AF17" s="30" t="n">
-        <v>10396.18</v>
+        <v>6683.852</v>
       </c>
       <c r="AG17" s="30" t="n">
-        <v>10462.712</v>
+        <v>6722.183</v>
       </c>
       <c r="AH17" s="30" t="n">
-        <v>10529.244</v>
+        <v>6760.514</v>
       </c>
       <c r="AI17" s="30" t="n">
-        <v>10595.776</v>
+        <v>6798.846</v>
       </c>
       <c r="AJ17" s="30" t="n">
-        <v>10662.308</v>
+        <v>6837.177000000001</v>
       </c>
     </row>
     <row r="19">
@@ -6942,100 +6942,100 @@
       </c>
       <c r="B2" s="26" t="n"/>
       <c r="C2" s="26" t="n">
-        <v>297887963.88</v>
+        <v>372287440.7399999</v>
       </c>
       <c r="D2" s="26" t="n">
-        <v>294204135.42</v>
+        <v>367683551.91</v>
       </c>
       <c r="E2" s="26" t="n">
-        <v>296078513.12</v>
+        <v>370026067.76</v>
       </c>
       <c r="F2" s="26" t="n">
-        <v>302990449.06</v>
+        <v>378664305.13</v>
       </c>
       <c r="G2" s="26" t="n">
-        <v>309255107.98</v>
+        <v>386493603.79</v>
       </c>
       <c r="H2" s="26" t="n">
-        <v>314763463.56</v>
+        <v>393377707.38</v>
       </c>
       <c r="I2" s="26" t="n">
-        <v>320288723.56</v>
+        <v>400282937.38</v>
       </c>
       <c r="J2" s="26" t="n">
-        <v>324900200.04</v>
+        <v>406046160.42</v>
       </c>
       <c r="K2" s="26" t="n">
-        <v>329525273.9999999</v>
+        <v>411826376.9999999</v>
       </c>
       <c r="L2" s="26" t="n">
-        <v>334489073.1</v>
+        <v>418029917.55</v>
       </c>
       <c r="M2" s="26" t="n">
-        <v>339464744.3199999</v>
+        <v>424248295.3599999</v>
       </c>
       <c r="N2" s="26" t="n">
-        <v>344497455.1199999</v>
+        <v>430537958.7599999</v>
       </c>
       <c r="O2" s="26" t="n">
-        <v>349652440.54</v>
+        <v>436980435.67</v>
       </c>
       <c r="P2" s="26" t="n">
-        <v>354788878.34</v>
+        <v>443399732.57</v>
       </c>
       <c r="Q2" s="26" t="n">
-        <v>360030645.26</v>
+        <v>449950665.23</v>
       </c>
       <c r="R2" s="26" t="n">
-        <v>365926138.76</v>
+        <v>457318596.98</v>
       </c>
       <c r="S2" s="26" t="n">
-        <v>370911443.24</v>
+        <v>463549014.02</v>
       </c>
       <c r="T2" s="26" t="n">
-        <v>375417118.18</v>
+        <v>469180010.89</v>
       </c>
       <c r="U2" s="26" t="n">
-        <v>380053222.12</v>
+        <v>474974012.26</v>
       </c>
       <c r="V2" s="26" t="n">
-        <v>384205198.26</v>
+        <v>480162971.73</v>
       </c>
       <c r="W2" s="26" t="n">
-        <v>387463951.42</v>
+        <v>484235619.91</v>
       </c>
       <c r="X2" s="26" t="n">
-        <v>392775698.12</v>
+        <v>490874010.26</v>
       </c>
       <c r="Y2" s="26" t="n">
-        <v>398796300.76</v>
+        <v>498398297.98</v>
       </c>
       <c r="Z2" s="26" t="n">
-        <v>403602845.62</v>
+        <v>504405309.01</v>
       </c>
       <c r="AA2" s="26" t="n">
-        <v>409395433.72</v>
+        <v>511644634.0599999</v>
       </c>
       <c r="AB2" s="26" t="n">
-        <v>416123290.18</v>
+        <v>520052816.89</v>
       </c>
       <c r="AC2" s="26" t="n">
-        <v>423170974.98</v>
+        <v>528860707.29</v>
       </c>
       <c r="AD2" s="26" t="n">
-        <v>429837129.28</v>
+        <v>537191777.4399999</v>
       </c>
       <c r="AE2" s="26" t="n">
-        <v>436246204.94</v>
+        <v>545201561.87</v>
       </c>
       <c r="AF2" s="26" t="n">
-        <v>442783655.6</v>
+        <v>553371783.8</v>
       </c>
       <c r="AG2" s="26" t="n">
-        <v>449053470.06</v>
+        <v>561207525.63</v>
       </c>
       <c r="AH2" s="26" t="n">
-        <v>455356169.06</v>
+        <v>569084365.13</v>
       </c>
     </row>
     <row r="3">
@@ -7149,100 +7149,100 @@
       </c>
       <c r="B4" s="26" t="n"/>
       <c r="C4" s="26" t="n">
-        <v>934978273.2</v>
+        <v>307007791.2</v>
       </c>
       <c r="D4" s="26" t="n">
-        <v>903072203.2000002</v>
+        <v>296531171.2</v>
       </c>
       <c r="E4" s="26" t="n">
-        <v>854109990.1</v>
+        <v>280454026.6</v>
       </c>
       <c r="F4" s="26" t="n">
-        <v>835140239.9</v>
+        <v>274225153.4</v>
       </c>
       <c r="G4" s="26" t="n">
-        <v>846017053.4</v>
+        <v>277796644.4</v>
       </c>
       <c r="H4" s="26" t="n">
-        <v>853630256.7</v>
+        <v>280296502.2</v>
       </c>
       <c r="I4" s="26" t="n">
-        <v>853253013.2</v>
+        <v>280172631.2</v>
       </c>
       <c r="J4" s="26" t="n">
-        <v>849876226.6</v>
+        <v>279063835.6</v>
       </c>
       <c r="K4" s="26" t="n">
-        <v>845194943.3000001</v>
+        <v>277526697.8</v>
       </c>
       <c r="L4" s="26" t="n">
-        <v>841080486.7</v>
+        <v>276175682.2</v>
       </c>
       <c r="M4" s="26" t="n">
-        <v>837520086.6</v>
+        <v>275006595.6</v>
       </c>
       <c r="N4" s="26" t="n">
-        <v>834125210</v>
+        <v>273891860</v>
       </c>
       <c r="O4" s="26" t="n">
-        <v>830309586.8000001</v>
+        <v>272638968.8</v>
       </c>
       <c r="P4" s="26" t="n">
-        <v>832031460</v>
+        <v>273204360</v>
       </c>
       <c r="Q4" s="26" t="n">
-        <v>834659890.1</v>
+        <v>274067426.6</v>
       </c>
       <c r="R4" s="26" t="n">
-        <v>836330186.7</v>
+        <v>274615882.2</v>
       </c>
       <c r="S4" s="26" t="n">
-        <v>838302639.9</v>
+        <v>275263553.4</v>
       </c>
       <c r="T4" s="26" t="n">
-        <v>840887520</v>
+        <v>276112320</v>
       </c>
       <c r="U4" s="26" t="n">
-        <v>844038523.3000001</v>
+        <v>277146977.8</v>
       </c>
       <c r="V4" s="26" t="n">
-        <v>846317213.4</v>
+        <v>277895204.4</v>
       </c>
       <c r="W4" s="26" t="n">
-        <v>847735603.4</v>
+        <v>278360944.4</v>
       </c>
       <c r="X4" s="26" t="n">
-        <v>849692666.7</v>
+        <v>279003562.2</v>
       </c>
       <c r="Y4" s="26" t="n">
-        <v>849255156.7</v>
+        <v>278859902.2</v>
       </c>
       <c r="Z4" s="26" t="n">
-        <v>848771389.9</v>
+        <v>278701053.4</v>
       </c>
       <c r="AA4" s="26" t="n">
-        <v>848112800</v>
+        <v>278484800</v>
       </c>
       <c r="AB4" s="26" t="n">
-        <v>846827049.9</v>
+        <v>278062613.4</v>
       </c>
       <c r="AC4" s="26" t="n">
-        <v>844971149.9</v>
+        <v>277453213.4</v>
       </c>
       <c r="AD4" s="26" t="n">
-        <v>843383256.6</v>
+        <v>276931815.6</v>
       </c>
       <c r="AE4" s="26" t="n">
-        <v>839159616.8000001</v>
+        <v>275544948.8</v>
       </c>
       <c r="AF4" s="26" t="n">
-        <v>836344243.3000001</v>
+        <v>274620497.8</v>
       </c>
       <c r="AG4" s="26" t="n">
-        <v>832796579.9</v>
+        <v>273455593.4</v>
       </c>
       <c r="AH4" s="26" t="n">
-        <v>827677109.9</v>
+        <v>271774573.4</v>
       </c>
     </row>
     <row r="5">
@@ -7253,100 +7253,100 @@
       </c>
       <c r="B5" s="26" t="n"/>
       <c r="C5" s="26" t="n">
-        <v>7276429538.639999</v>
+        <v>4956408526.32</v>
       </c>
       <c r="D5" s="26" t="n">
-        <v>7424639203.679999</v>
+        <v>5057362935.84</v>
       </c>
       <c r="E5" s="26" t="n">
-        <v>7719965954.639999</v>
+        <v>5258527534.32</v>
       </c>
       <c r="F5" s="26" t="n">
-        <v>7971518962.079999</v>
+        <v>5429875235.04</v>
       </c>
       <c r="G5" s="26" t="n">
-        <v>8230387713.839999</v>
+        <v>5606206123.92</v>
       </c>
       <c r="H5" s="26" t="n">
-        <v>8431239366.719999</v>
+        <v>5743018119.36</v>
       </c>
       <c r="I5" s="26" t="n">
-        <v>8585335101.6</v>
+        <v>5847981880.800001</v>
       </c>
       <c r="J5" s="26" t="n">
-        <v>8715539923.199999</v>
+        <v>5936672121.599999</v>
       </c>
       <c r="K5" s="26" t="n">
-        <v>8840767852.08</v>
+        <v>6021972305.04</v>
       </c>
       <c r="L5" s="26" t="n">
-        <v>8979370928.639997</v>
+        <v>6116383096.32</v>
       </c>
       <c r="M5" s="26" t="n">
-        <v>9114756811.199999</v>
+        <v>6208602465.6</v>
       </c>
       <c r="N5" s="26" t="n">
-        <v>9269476179.119999</v>
+        <v>6313991020.56</v>
       </c>
       <c r="O5" s="26" t="n">
-        <v>9400622999.759998</v>
+        <v>6403322912.88</v>
       </c>
       <c r="P5" s="26" t="n">
-        <v>9525147443.279999</v>
+        <v>6488143910.64</v>
       </c>
       <c r="Q5" s="26" t="n">
-        <v>9651522566.16</v>
+        <v>6574225516.08</v>
       </c>
       <c r="R5" s="26" t="n">
-        <v>9783485066.16</v>
+        <v>6664113016.08</v>
       </c>
       <c r="S5" s="26" t="n">
-        <v>9921467556.719999</v>
+        <v>6758101089.36</v>
       </c>
       <c r="T5" s="26" t="n">
-        <v>10041161663.52</v>
+        <v>6839631857.76</v>
       </c>
       <c r="U5" s="26" t="n">
-        <v>10159144592.4</v>
+        <v>6919997041.2</v>
       </c>
       <c r="V5" s="26" t="n">
-        <v>10279991954.16</v>
+        <v>7002313360.08</v>
       </c>
       <c r="W5" s="26" t="n">
-        <v>10408335994.8</v>
+        <v>7089736112.4</v>
       </c>
       <c r="X5" s="26" t="n">
-        <v>10540618897.68</v>
+        <v>7179841857.84</v>
       </c>
       <c r="Y5" s="26" t="n">
-        <v>10664603617.68</v>
+        <v>7264295217.84</v>
       </c>
       <c r="Z5" s="26" t="n">
-        <v>10818140402.88</v>
+        <v>7368878245.440001</v>
       </c>
       <c r="AA5" s="26" t="n">
-        <v>10947445668.72</v>
+        <v>7456955745.36</v>
       </c>
       <c r="AB5" s="26" t="n">
-        <v>11091089311.2</v>
+        <v>7554799965.6</v>
       </c>
       <c r="AC5" s="26" t="n">
-        <v>11236097464.56</v>
+        <v>7653573635.28</v>
       </c>
       <c r="AD5" s="26" t="n">
-        <v>11401615591.92</v>
+        <v>7766317866.96</v>
       </c>
       <c r="AE5" s="26" t="n">
-        <v>11544098908.32</v>
+        <v>7863371720.16</v>
       </c>
       <c r="AF5" s="26" t="n">
-        <v>11686892526</v>
+        <v>7960636938</v>
       </c>
       <c r="AG5" s="26" t="n">
-        <v>11855694551.04</v>
+        <v>8075618027.52</v>
       </c>
       <c r="AH5" s="26" t="n">
-        <v>11976180076.8</v>
+        <v>8157687878.4</v>
       </c>
     </row>
     <row r="6">
@@ -7596,100 +7596,100 @@
       </c>
       <c r="B8" s="26" t="n"/>
       <c r="C8" s="26" t="n">
-        <v>15081220277.76</v>
+        <v>8374427606.16</v>
       </c>
       <c r="D8" s="26" t="n">
-        <v>15265998267.52</v>
+        <v>8477032691.820002</v>
       </c>
       <c r="E8" s="26" t="n">
-        <v>15531545848</v>
+        <v>8624488199.25</v>
       </c>
       <c r="F8" s="26" t="n">
-        <v>15820529524.8</v>
+        <v>8784957500.549999</v>
       </c>
       <c r="G8" s="26" t="n">
-        <v>16047274152</v>
+        <v>8910866175.75</v>
       </c>
       <c r="H8" s="26" t="n">
-        <v>16296562609.6</v>
+        <v>9049293179.85</v>
       </c>
       <c r="I8" s="26" t="n">
-        <v>16550104247.04</v>
+        <v>9190081925.639999</v>
       </c>
       <c r="J8" s="26" t="n">
-        <v>16788330511.68</v>
+        <v>9322366221.630001</v>
       </c>
       <c r="K8" s="26" t="n">
-        <v>17023007426.88</v>
+        <v>9452679604.83</v>
       </c>
       <c r="L8" s="26" t="n">
-        <v>17260935095.04</v>
+        <v>9584798093.639999</v>
       </c>
       <c r="M8" s="26" t="n">
-        <v>17505275424</v>
+        <v>9720477459</v>
       </c>
       <c r="N8" s="26" t="n">
-        <v>17764948918.08</v>
+        <v>9864671154.030001</v>
       </c>
       <c r="O8" s="26" t="n">
-        <v>18052384488.32</v>
+        <v>10024280809.62</v>
       </c>
       <c r="P8" s="26" t="n">
-        <v>18331662061.44</v>
+        <v>10179360423.54</v>
       </c>
       <c r="Q8" s="26" t="n">
-        <v>18600499532.16</v>
+        <v>10328642769.06</v>
       </c>
       <c r="R8" s="26" t="n">
-        <v>18884846081.92</v>
+        <v>10486537127.22</v>
       </c>
       <c r="S8" s="26" t="n">
-        <v>19155085884.48</v>
+        <v>10636598171.43</v>
       </c>
       <c r="T8" s="26" t="n">
-        <v>19406560467.84</v>
+        <v>10776239105.94</v>
       </c>
       <c r="U8" s="26" t="n">
-        <v>19646162390.4</v>
+        <v>10909287288.9</v>
       </c>
       <c r="V8" s="26" t="n">
-        <v>19884040321.6</v>
+        <v>11041378159.35</v>
       </c>
       <c r="W8" s="26" t="n">
-        <v>20118795424</v>
+        <v>11171734959</v>
       </c>
       <c r="X8" s="26" t="n">
-        <v>20368064342.08</v>
+        <v>11310151113.03</v>
       </c>
       <c r="Y8" s="26" t="n">
-        <v>20622139166.72</v>
+        <v>11451235931.52</v>
       </c>
       <c r="Z8" s="26" t="n">
-        <v>20871548501.44</v>
+        <v>11589730057.29</v>
       </c>
       <c r="AA8" s="26" t="n">
-        <v>21131113552.64</v>
+        <v>11733863535.24</v>
       </c>
       <c r="AB8" s="26" t="n">
-        <v>21397110833.28</v>
+        <v>11881568755.98</v>
       </c>
       <c r="AC8" s="26" t="n">
-        <v>21670485840.64</v>
+        <v>12033370743.24</v>
       </c>
       <c r="AD8" s="26" t="n">
-        <v>21945529773.44</v>
+        <v>12186099465.54</v>
       </c>
       <c r="AE8" s="26" t="n">
-        <v>22221773450.24</v>
+        <v>12339494391.84</v>
       </c>
       <c r="AF8" s="26" t="n">
-        <v>22500892843.52</v>
+        <v>12494486170.32</v>
       </c>
       <c r="AG8" s="26" t="n">
-        <v>22784121447.36</v>
+        <v>12651759746.01</v>
       </c>
       <c r="AH8" s="26" t="n">
-        <v>23070453311.36</v>
+        <v>12810756526.26</v>
       </c>
     </row>
     <row r="9">
@@ -7700,100 +7700,100 @@
       </c>
       <c r="B9" s="26" t="n"/>
       <c r="C9" s="26" t="n">
-        <v>72084432254.61</v>
+        <v>78447891541.92</v>
       </c>
       <c r="D9" s="26" t="n">
-        <v>71866500770.45999</v>
+        <v>78210721533.12</v>
       </c>
       <c r="E9" s="26" t="n">
-        <v>71913722611.76999</v>
+        <v>78262112017.44</v>
       </c>
       <c r="F9" s="26" t="n">
-        <v>72992780327.45999</v>
+        <v>79436426637.12</v>
       </c>
       <c r="G9" s="26" t="n">
-        <v>73840398891</v>
+        <v>80358871152</v>
       </c>
       <c r="H9" s="26" t="n">
-        <v>74822817990.20999</v>
+        <v>81428016105.12</v>
       </c>
       <c r="I9" s="26" t="n">
-        <v>75735882075.87</v>
+        <v>82421683532.64</v>
       </c>
       <c r="J9" s="26" t="n">
-        <v>76758974595.95999</v>
+        <v>83535092469.12</v>
       </c>
       <c r="K9" s="26" t="n">
-        <v>78049148455.89</v>
+        <v>84939160114.08</v>
       </c>
       <c r="L9" s="26" t="n">
-        <v>79461451514.61</v>
+        <v>86476138261.92</v>
       </c>
       <c r="M9" s="26" t="n">
-        <v>80932371156.65999</v>
+        <v>88076907539.52</v>
       </c>
       <c r="N9" s="26" t="n">
-        <v>82433011772.84999</v>
+        <v>89710021495.2</v>
       </c>
       <c r="O9" s="26" t="n">
-        <v>83897954334</v>
+        <v>91304286048</v>
       </c>
       <c r="P9" s="26" t="n">
-        <v>85439762491.34999</v>
+        <v>92982201727.2</v>
       </c>
       <c r="Q9" s="26" t="n">
-        <v>87106806486.75</v>
+        <v>94796408796</v>
       </c>
       <c r="R9" s="26" t="n">
-        <v>88924041591.71999</v>
+        <v>96774065523.84</v>
       </c>
       <c r="S9" s="26" t="n">
-        <v>90679934346.39</v>
+        <v>98684964730.08</v>
       </c>
       <c r="T9" s="26" t="n">
-        <v>92331392035.23</v>
+        <v>100482209566.56</v>
       </c>
       <c r="U9" s="26" t="n">
-        <v>94076499406.23</v>
+        <v>102381371278.56</v>
       </c>
       <c r="V9" s="26" t="n">
-        <v>95730698989.98</v>
+        <v>104181600058.56</v>
       </c>
       <c r="W9" s="26" t="n">
-        <v>97392235086.56999</v>
+        <v>105989813003.04</v>
       </c>
       <c r="X9" s="26" t="n">
-        <v>99195889056.42</v>
+        <v>107952689682.24</v>
       </c>
       <c r="Y9" s="26" t="n">
-        <v>101082831833.7</v>
+        <v>110006207726.4</v>
       </c>
       <c r="Z9" s="26" t="n">
-        <v>102834947333.61</v>
+        <v>111912996229.92</v>
       </c>
       <c r="AA9" s="26" t="n">
-        <v>104728936134.24</v>
+        <v>113974182305.28</v>
       </c>
       <c r="AB9" s="26" t="n">
-        <v>106615177304.67</v>
+        <v>116026936806.24</v>
       </c>
       <c r="AC9" s="26" t="n">
-        <v>108442061685.66</v>
+        <v>118015094627.52</v>
       </c>
       <c r="AD9" s="26" t="n">
-        <v>110186727196.71</v>
+        <v>119913775473.12</v>
       </c>
       <c r="AE9" s="26" t="n">
-        <v>111955844551.23</v>
+        <v>121839066718.56</v>
       </c>
       <c r="AF9" s="26" t="n">
-        <v>113680129466.43</v>
+        <v>123715567812.96</v>
       </c>
       <c r="AG9" s="26" t="n">
-        <v>115522381162.26</v>
+        <v>125720449542.72</v>
       </c>
       <c r="AH9" s="26" t="n">
-        <v>117419705544.27</v>
+        <v>127785265657.44</v>
       </c>
     </row>
     <row r="11">
